--- a/data/general_audience_speeches.xlsx
+++ b/data/general_audience_speeches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofie\Desktop\ENSAE\3A\Projet EPD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1379E301-72E0-4837-8FBD-E2A24DDF52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAA6CF8-0CBC-4D88-A4F3-78AD00D258A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F107F413-F757-9940-904E-0C162E01B749}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>Institution</t>
   </si>
@@ -907,6 +907,83 @@
 employment and stable prices for the American people. At today’s meeting, the Committee
 decided to lower the target range for the federal funds rate by ¼ percentage point to 3¾ to
 4 percent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fed </t>
+  </si>
+  <si>
+    <t>Our monetary policy actions are guided by our dual mandate to promote maximum employment and stable prices for the American people. At today's meeting, the committee decided to lower the target range for the federal funds rate by a quarter percentage point to 4 to 4.25 percent, and to continue reducing the size of our balance sheet.</t>
+  </si>
+  <si>
+    <t>In support of our goals, today the Federal Open Market Committee decided to leave our policy interest rate unchanged. We believe that the current stance of monetary policy leaves us well positioned to respond in a timely way to potential economic developments.</t>
+  </si>
+  <si>
+    <t>Our monetary policy actions are guided by our dual mandate to promote maximum employment and stable prices for the American people. At today's meeting, the Committee decided to maintain the target range for the federal funds rate at 4.25 to 4.5 percent and to continue reducing the size of our balance sheet. We will continue to determine the appropriate stance of monetary policy based on the incoming data, the evolving outlook, and the balance of risks.</t>
+  </si>
+  <si>
+    <t>My colleagues and I remain squarely focused on achieving our dual mandate goals of maximum employment and stable prices for the benefit of the American people. Despite heightened uncertainty, the economy is still in a solid position. The unemployment rate remains low, and the labor market is at or near maximum employment.</t>
+  </si>
+  <si>
+    <t>Our monetary policy actions are guided by our dual mandate to promote maximum employment and stable prices for the American people. At today's meeting, the committee decided to maintain the target range for the federal funds rate at 4.25 to 4.5 percent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Fed has been assigned two goals for monetary policy, maximum employment and stable prices.
+ We remain committed to supporting maximum employment, bringing inflation sustainably
+ to our 2 percent goal, and keeping longer-run inflation expectations well anchored.
+ Our success in delivering on these goals matters to all Americans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My colleagues and I remain squarely focused on achieving our dual mandate goals of maximum
+ employment and stable prices for the benefit of the American people.
+ The economy is strong overall and has made significant progress toward our goals over
+ the past two years.
+ The labor market has cooled from its formerly overheated state and remains solid.
+ Inflation has moved much closer to our 2 percent longer run goal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Fed has been assigned two goals for monetary policy,
+ maximum employment and stable prices.
+ We remain committed to supporting maximum employment,
+ bringing inflation sustainably to our 2% goal,
+ and keeping longer-term inflation expectations
+ well anchored.
+ Our success in delivering on these goals
+ matters to all Americans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This decision reflects our growing confidence
+ that with an appropriate recalibration of our policy stance,
+ strength in the labor market can be maintained
+ in a context of moderate growth
+ and inflation moving sustainably down to 2%.  This recalibration of our policy stance will help maintain the strength of the economy and the labor market
+ and will continue to enable further progress on inflation as we begin the process of moving toward a more neutral stance.</t>
+  </si>
+  <si>
+    <t>The Fed has been assigned two goals for monetary policy,
+ maximum employment and stable prices.
+ We remain committed to bringing inflation back down
+ to our 2 percent goal and to keeping the longer-term inflation
+ expectations well anchored.
+ Restoring price stability is essential
+ to achieving maximum employment and stable prices
+ over the longer run.
+ Our success in delivering on these goals
+ matters to all Americans.</t>
+  </si>
+  <si>
+    <t>My colleagues and I remain squarely focused on achieving our dual mandate goals of maximum employment and stable prices for the benefit of the American people. Our economy has made considerable progress toward both goals over the past two years. The labor market has come into better balance, with continued strong job gains and a low unemployment rate. Inflation has eased substantially from a peak of 7 percent to 2.7 percent, but is still too high. We are strongly committed to returning inflation to our 2 percent goal in support of a strong economy that benefits everyone.</t>
+  </si>
+  <si>
+    <t>In considering any adjustments to the target range for the federal funds rate, the Committee will carefully assess incoming data, the evolving outlook, and the balance of risks. Policy is well positioned to deal with the risks and uncertainties that we face in pursuing both sides of our dual mandate. We will continue to make decisions meeting by meeting.</t>
+  </si>
+  <si>
+    <t>The Fed's monetary policy actions are guided by our mandate to promote maximum employment and stable prices for the American people. My colleagues and I are acutely aware that high inflation imposes significant hardship as it erodes purchasing power, especially for those least able to meet the higher costs of essentials, like food, housing, and transportation. We are strongly committed to returning inflation to our 2 percent objective.</t>
+  </si>
+  <si>
+    <t>The economy has made good progress toward our dual mandate objectives. Inflation has eased from its highs without a significant increase in unemployment. That's very good news. But inflation is still too high, ongoing progress in bringing it down is not assured, and the path forward is uncertain. I want to assure the American people that we are fully committed to returning inflation to our 2 percent goal.</t>
+  </si>
+  <si>
+    <t>As we look ahead to next year, I want to assure the American people that we're fully committed to returning inflation to our 2 percent goal. Restoring price stability is essential to achieve a sustained period of strong labor market conditions that benefit all.</t>
   </si>
 </sst>
 </file>
@@ -942,12 +1019,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212D4275-14D4-E246-8652-C3266AC6B551}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2115,7 +2195,173 @@
         <v>79</v>
       </c>
     </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45917</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45784</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45735</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45686</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45644</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45603</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45553</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45504</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45455</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45413</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45321</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>